--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede1\Desktop\uni\basi di dati\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAA24E6-E1B9-4A51-B804-C2EFB8B2343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4789D7-721C-49EE-9A71-7AB3B9A5F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>concetto</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>il volume è il massimo che io stimo di avere in un lasso di tmepo infinito??</t>
   </si>
   <si>
     <t>à</t>
@@ -181,11 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -502,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AFF440-FC00-4D64-926A-5EFCA8605299}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,9 +518,7 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -702,7 +696,7 @@
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -822,7 +816,7 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>5000000</v>
       </c>
     </row>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede1\Desktop\uni\basi di dati\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4789D7-721C-49EE-9A71-7AB3B9A5F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8CC15-709C-4CE2-AD70-7C65797AFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
+    <workbookView xWindow="10248" yWindow="168" windowWidth="12960" windowHeight="11832" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>concetto</t>
   </si>
@@ -71,9 +71,6 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>lascia</t>
-  </si>
-  <si>
     <t>acquisto in store</t>
   </si>
   <si>
@@ -132,16 +129,13 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>à</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +145,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,10 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -498,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AFF440-FC00-4D64-926A-5EFCA8605299}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -536,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -558,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>1000000</v>
@@ -569,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>10000</v>
@@ -580,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -591,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>5100000</v>
@@ -602,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>100000</v>
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -627,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -635,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -649,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -657,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>5000000</v>
@@ -668,13 +671,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -685,21 +688,18 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -707,54 +707,54 @@
         <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -762,21 +762,21 @@
         <v>30</v>
       </c>
       <c r="D24" s="2">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -784,41 +784,33 @@
         <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5000000</v>
-      </c>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede1\Desktop\uni\basi di dati\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8CC15-709C-4CE2-AD70-7C65797AFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F8555-BE41-1945-80AA-8AD2A1AC760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="168" windowWidth="12960" windowHeight="11832" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Volumi" sheetId="1" r:id="rId1"/>
+    <sheet name="OperazioniConRidondanza" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
   <si>
     <t>concetto</t>
   </si>
@@ -74,15 +75,6 @@
     <t>acquisto in store</t>
   </si>
   <si>
-    <t>vende</t>
-  </si>
-  <si>
-    <t>carrello</t>
-  </si>
-  <si>
-    <t>contiene</t>
-  </si>
-  <si>
     <t>accessorio</t>
   </si>
   <si>
@@ -122,20 +114,236 @@
     <t>necessita</t>
   </si>
   <si>
-    <t>pezzi di ricambio</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>comprende</t>
+  </si>
+  <si>
+    <t>pezzo di ricambio</t>
+  </si>
+  <si>
+    <t>Op1</t>
+  </si>
+  <si>
+    <t>Concetto</t>
+  </si>
+  <si>
+    <t>Costrutto</t>
+  </si>
+  <si>
+    <t>Accessi</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>RICHIEDE</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>OFFRE</t>
+  </si>
+  <si>
+    <t>OFFICINA</t>
+  </si>
+  <si>
+    <t>SERVIZIO/AIS</t>
+  </si>
+  <si>
+    <t>COMPRENDE</t>
+  </si>
+  <si>
+    <t>ACCESSORIO</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di acquisto in shop da parte di un cliente già registrato</t>
+  </si>
+  <si>
+    <t>8S</t>
+  </si>
+  <si>
+    <t>Op2</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di acquisto in shop da parte di un cliente non registrato</t>
+  </si>
+  <si>
+    <t>9S</t>
+  </si>
+  <si>
+    <t>6L</t>
+  </si>
+  <si>
+    <t>Op3</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di Compra/Vendita auto da parte di un cliente già registrato</t>
+  </si>
+  <si>
+    <t>SERVIZIO/CVA</t>
+  </si>
+  <si>
+    <t>FINALIZZATA</t>
+  </si>
+  <si>
+    <t>CONSULENTE</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>VEICOLO</t>
+  </si>
+  <si>
+    <t>Op4</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di Compra/Vendita auto da parte di un cliente non registrato</t>
+  </si>
+  <si>
+    <t>7S</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>Op5</t>
+  </si>
+  <si>
+    <t>SERVIZIO/INT</t>
+  </si>
+  <si>
+    <t>SVOLTO</t>
+  </si>
+  <si>
+    <t>MECCANICO</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>NECESSITA</t>
+  </si>
+  <si>
+    <t>PEZZO DI RICAMBIO</t>
+  </si>
+  <si>
+    <t>Op6</t>
+  </si>
+  <si>
+    <t>Op7</t>
+  </si>
+  <si>
+    <t>Aggiunta nuovo dipendente</t>
+  </si>
+  <si>
+    <t>DIPENDETE</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>Op8</t>
+  </si>
+  <si>
+    <t>19S</t>
+  </si>
+  <si>
+    <t>14L</t>
+  </si>
+  <si>
+    <t>Calcolo bilancio singola officina</t>
+  </si>
+  <si>
+    <t>10S</t>
+  </si>
+  <si>
+    <t>5L</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>20S</t>
+  </si>
+  <si>
+    <t>13L</t>
+  </si>
+  <si>
+    <t>Op9</t>
+  </si>
+  <si>
+    <t>Calcolo bilancio totale officine</t>
+  </si>
+  <si>
+    <t>CENTRALE</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>COSTO</t>
+  </si>
+  <si>
+    <t>500/gg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>12000/gg</t>
+  </si>
+  <si>
+    <t>50/gg</t>
+  </si>
+  <si>
+    <t>1250/gg</t>
+  </si>
+  <si>
+    <t>60/gg</t>
+  </si>
+  <si>
+    <t>1020/gg</t>
+  </si>
+  <si>
+    <t>1080/gg</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di intervento su auto da parte di un cliente già registrato</t>
+  </si>
+  <si>
+    <t>Richiesta di un servizio di intervento auto da parte di un cliente non registrato</t>
+  </si>
+  <si>
+    <t>200/gg</t>
+  </si>
+  <si>
+    <t>10400/gg</t>
+  </si>
+  <si>
+    <t>10600/gg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,18 +367,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -180,11 +414,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -501,17 +741,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AFF440-FC00-4D64-926A-5EFCA8605299}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,297 +763,1812 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>5100000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
+  <dimension ref="A1:N134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <v>52</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" t="s">
+        <v>85</v>
+      </c>
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L111" t="s">
+        <v>3</v>
+      </c>
+      <c r="M111" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L112" t="s">
+        <v>4</v>
+      </c>
+      <c r="M112" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+      <c r="L113" t="s">
+        <v>5</v>
+      </c>
+      <c r="M113" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>42</v>
+      </c>
+      <c r="L115" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L116" t="s">
+        <v>8</v>
+      </c>
+      <c r="M116" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L117" t="s">
+        <v>9</v>
+      </c>
+      <c r="M117" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L118" t="s">
+        <v>10</v>
+      </c>
+      <c r="M118" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L119" t="s">
+        <v>11</v>
+      </c>
+      <c r="M119" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L120" t="s">
+        <v>27</v>
+      </c>
+      <c r="M120" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L121" t="s">
+        <v>12</v>
+      </c>
+      <c r="M121" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L122" t="s">
+        <v>13</v>
+      </c>
+      <c r="M122" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L124" t="s">
+        <v>15</v>
+      </c>
+      <c r="M124" t="s">
+        <v>25</v>
+      </c>
+      <c r="N124" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" t="s">
+        <v>26</v>
+      </c>
+      <c r="N125" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" t="s">
+        <v>26</v>
+      </c>
+      <c r="N128" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="129" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="130" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>21</v>
+      </c>
+      <c r="M130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N130" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="131" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>22</v>
+      </c>
+      <c r="M131" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="132" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>23</v>
+      </c>
+      <c r="M132" t="s">
+        <v>26</v>
+      </c>
+      <c r="N132" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="133" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L133" t="s">
+        <v>24</v>
+      </c>
+      <c r="M133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N133" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="134" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L134" t="s">
+        <v>28</v>
+      </c>
+      <c r="M134" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F8555-BE41-1945-80AA-8AD2A1AC760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF92D20C-4D4B-6248-918D-CB763F4CBE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="121">
   <si>
     <t>concetto</t>
   </si>
@@ -273,18 +273,9 @@
     <t>10S</t>
   </si>
   <si>
-    <t>5L</t>
-  </si>
-  <si>
-    <t>2L</t>
-  </si>
-  <si>
     <t>20S</t>
   </si>
   <si>
-    <t>13L</t>
-  </si>
-  <si>
     <t>Op9</t>
   </si>
   <si>
@@ -306,21 +297,12 @@
     <t>=</t>
   </si>
   <si>
-    <t>12000/gg</t>
-  </si>
-  <si>
     <t>50/gg</t>
   </si>
   <si>
-    <t>1250/gg</t>
-  </si>
-  <si>
     <t>60/gg</t>
   </si>
   <si>
-    <t>1020/gg</t>
-  </si>
-  <si>
     <t>1080/gg</t>
   </si>
   <si>
@@ -333,17 +315,98 @@
     <t>200/gg</t>
   </si>
   <si>
-    <t>10400/gg</t>
-  </si>
-  <si>
     <t>10600/gg</t>
+  </si>
+  <si>
+    <t>80/m</t>
+  </si>
+  <si>
+    <t>160/m</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1/gg</t>
+  </si>
+  <si>
+    <t>40L</t>
+  </si>
+  <si>
+    <t>40/gg</t>
+  </si>
+  <si>
+    <t>STIPENDIO</t>
+  </si>
+  <si>
+    <t>PERCEPISCE</t>
+  </si>
+  <si>
+    <t>Op10a</t>
+  </si>
+  <si>
+    <t>PAGA</t>
+  </si>
+  <si>
+    <t>10000S</t>
+  </si>
+  <si>
+    <t>2000L</t>
+  </si>
+  <si>
+    <t>1/M</t>
+  </si>
+  <si>
+    <t>Op10b</t>
+  </si>
+  <si>
+    <t>Calcolo stipendio dipendenti(meccanico)</t>
+  </si>
+  <si>
+    <t>Calcolo stipendio dipendenti(consulente)</t>
+  </si>
+  <si>
+    <t>CONSULENTI</t>
+  </si>
+  <si>
+    <t>50000S</t>
+  </si>
+  <si>
+    <t>7L</t>
+  </si>
+  <si>
+    <t>12500/gg</t>
+  </si>
+  <si>
+    <t>1300/gg</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>1140/gg</t>
+  </si>
+  <si>
+    <t>15L</t>
+  </si>
+  <si>
+    <t>10800/gg</t>
+  </si>
+  <si>
+    <t>4000L</t>
+  </si>
+  <si>
+    <t>24000/m</t>
+  </si>
+  <si>
+    <t>12000/m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +440,13 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -423,8 +493,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1039,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1140,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
@@ -1136,18 +1206,18 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -1155,91 +1225,91 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1250,10 +1320,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1264,10 +1334,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1278,130 +1348,130 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
+      <c r="D25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -1410,12 +1480,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -1429,7 +1499,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -1438,12 +1508,12 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -1456,22 +1526,22 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -1485,7 +1555,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -1499,7 +1569,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1511,107 +1581,107 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
         <v>88</v>
       </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1622,10 +1692,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1636,10 +1706,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1650,38 +1720,38 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1692,130 +1762,130 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61">
-        <v>18</v>
-      </c>
-      <c r="E61" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -1829,13 +1899,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -1843,13 +1913,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>42</v>
@@ -1857,35 +1927,35 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>41</v>
+      <c r="A75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -1894,18 +1964,18 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
@@ -1913,658 +1983,1130 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" t="s">
-        <v>86</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
         <v>75</v>
       </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80">
-        <v>52</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105">
+        <v>54</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="7">
+        <v>2</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>97</v>
       </c>
-      <c r="F80" t="s">
+      <c r="C118" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="7">
+        <v>40</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="F124" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B127" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>2000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129">
+        <v>2000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <v>2000</v>
+      </c>
+      <c r="D130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>2000</v>
+      </c>
+      <c r="D131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132">
+        <v>2000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91">
+      <c r="B133" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>2000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="7">
+        <v>24000</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>99</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>1000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <v>1000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>1000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>1000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>10</v>
       </c>
-      <c r="D96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" t="s">
-        <v>85</v>
-      </c>
-      <c r="F98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99">
-        <v>53</v>
-      </c>
-      <c r="E99" t="s">
-        <v>97</v>
-      </c>
-      <c r="F99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>42</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L111" t="s">
-        <v>3</v>
-      </c>
-      <c r="M111" t="s">
-        <v>25</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L112" t="s">
-        <v>4</v>
-      </c>
-      <c r="M112" t="s">
-        <v>25</v>
-      </c>
-      <c r="N112">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" t="s">
-        <v>83</v>
-      </c>
-      <c r="L113" t="s">
-        <v>5</v>
-      </c>
-      <c r="M113" t="s">
-        <v>26</v>
-      </c>
-      <c r="N113">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L114" t="s">
-        <v>6</v>
-      </c>
-      <c r="M114" t="s">
-        <v>26</v>
-      </c>
-      <c r="N114" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>42</v>
-      </c>
-      <c r="L115" t="s">
-        <v>7</v>
-      </c>
-      <c r="M115" t="s">
-        <v>26</v>
-      </c>
-      <c r="N115" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L116" t="s">
-        <v>8</v>
-      </c>
-      <c r="M116" t="s">
-        <v>25</v>
-      </c>
-      <c r="N116" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L117" t="s">
-        <v>9</v>
-      </c>
-      <c r="M117" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L118" t="s">
-        <v>10</v>
-      </c>
-      <c r="M118" t="s">
-        <v>25</v>
-      </c>
-      <c r="N118" s="2">
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L119" t="s">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
         <v>11</v>
       </c>
-      <c r="M119" t="s">
-        <v>25</v>
-      </c>
-      <c r="N119" s="2">
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2">
         <v>500000</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L120" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>27</v>
       </c>
-      <c r="M120" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" s="2">
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="2">
         <v>2500000</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L121" t="s">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
         <v>12</v>
       </c>
-      <c r="M121" t="s">
-        <v>25</v>
-      </c>
-      <c r="N121" s="2">
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2">
         <v>2500000</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L122" t="s">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="M122" t="s">
-        <v>25</v>
-      </c>
-      <c r="N122" s="2">
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L123" t="s">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
         <v>14</v>
       </c>
-      <c r="M123" t="s">
-        <v>26</v>
-      </c>
-      <c r="N123" s="2">
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L124" t="s">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>15</v>
       </c>
-      <c r="M124" t="s">
-        <v>25</v>
-      </c>
-      <c r="N124" s="2">
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L125" t="s">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
         <v>16</v>
       </c>
-      <c r="M125" t="s">
-        <v>26</v>
-      </c>
-      <c r="N125" s="2">
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L126" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
         <v>17</v>
       </c>
-      <c r="M126" t="s">
-        <v>25</v>
-      </c>
-      <c r="N126" s="2">
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L127" t="s">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>18</v>
       </c>
-      <c r="M127" t="s">
-        <v>25</v>
-      </c>
-      <c r="N127">
+      <c r="C174" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174">
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L128" t="s">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>19</v>
       </c>
-      <c r="M128" t="s">
-        <v>26</v>
-      </c>
-      <c r="N128" s="2">
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="129" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L129" t="s">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>20</v>
       </c>
-      <c r="M129" t="s">
-        <v>25</v>
-      </c>
-      <c r="N129" s="2">
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="130" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L130" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>21</v>
       </c>
-      <c r="M130" t="s">
-        <v>26</v>
-      </c>
-      <c r="N130" s="2">
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="131" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L131" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
         <v>22</v>
       </c>
-      <c r="M131" t="s">
-        <v>25</v>
-      </c>
-      <c r="N131" s="2">
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="132" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L132" t="s">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
         <v>23</v>
       </c>
-      <c r="M132" t="s">
-        <v>26</v>
-      </c>
-      <c r="N132" s="2">
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="133" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L133" t="s">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
         <v>24</v>
       </c>
-      <c r="M133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N133" s="2">
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="134" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L134" t="s">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>28</v>
       </c>
-      <c r="M134" t="s">
-        <v>25</v>
-      </c>
-      <c r="N134" s="2">
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2">
         <v>10000000</v>
       </c>
     </row>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E55B4-65E1-764F-9AB0-E287B817D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2ABD1-DA1B-E542-B4DA-F8EF29058CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="117">
   <si>
     <t>concetto</t>
   </si>
@@ -174,6 +174,9 @@
     <t>Richiesta di un servizio di acquisto in shop da parte di un cliente già registrato</t>
   </si>
   <si>
+    <t>Op2</t>
+  </si>
+  <si>
     <t>9S</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
     <t>VEICOLO</t>
   </si>
   <si>
+    <t>Op4</t>
+  </si>
+  <si>
     <t>7S</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>PEZZO DI RICAMBIO</t>
   </si>
   <si>
+    <t>Op6</t>
+  </si>
+  <si>
     <t>Op7</t>
   </si>
   <si>
@@ -234,18 +243,12 @@
     <t>1S</t>
   </si>
   <si>
-    <t>Op8</t>
-  </si>
-  <si>
     <t>19S</t>
   </si>
   <si>
     <t>Calcolo bilancio singola officina</t>
   </si>
   <si>
-    <t>Op9</t>
-  </si>
-  <si>
     <t>Calcolo bilancio totale officine</t>
   </si>
   <si>
@@ -303,9 +306,6 @@
     <t>PERCEPISCE</t>
   </si>
   <si>
-    <t>Op10a</t>
-  </si>
-  <si>
     <t>PAGA</t>
   </si>
   <si>
@@ -318,9 +318,6 @@
     <t>1/M</t>
   </si>
   <si>
-    <t>Op10b</t>
-  </si>
-  <si>
     <t>Calcolo stipendio dipendenti(meccanico)</t>
   </si>
   <si>
@@ -355,6 +352,42 @@
   </si>
   <si>
     <t>Analisi ridondanze</t>
+  </si>
+  <si>
+    <t>Registrazione nuovo cliente</t>
+  </si>
+  <si>
+    <t>300/gg</t>
+  </si>
+  <si>
+    <t>600/gg</t>
+  </si>
+  <si>
+    <t>Op8a</t>
+  </si>
+  <si>
+    <t>Op8b</t>
+  </si>
+  <si>
+    <t>RECENSIONE</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Op9a</t>
+  </si>
+  <si>
+    <t>Aggiunta recensione AIS</t>
+  </si>
+  <si>
+    <t>SERVIZIO AIS</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>100/gg</t>
   </si>
 </sst>
 </file>
@@ -1064,17 +1097,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1216,41 +1249,41 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -1264,9 +1297,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1278,7 +1311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1320,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1348,9 +1381,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1362,9 +1395,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1376,9 +1409,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1390,9 +1423,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1404,9 +1437,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1418,45 +1451,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1475,7 +1506,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -1559,7 +1590,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -1573,7 +1604,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -1587,7 +1618,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1599,9 +1630,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -1613,9 +1644,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1627,9 +1658,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -1641,9 +1672,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -1655,443 +1686,591 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH59" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC64" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AA65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AA66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC66">
+        <v>2</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC67">
+        <v>2</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC68">
+        <v>2</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC71">
+        <v>10</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AA72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC72">
+        <v>10</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA73" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD74">
+        <v>53</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="AJ75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="7">
+        <v>40</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="7">
-        <v>2</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66">
-        <v>40</v>
-      </c>
-      <c r="D66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="7">
-        <v>40</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E69" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="7">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E75" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78">
-        <v>2000</v>
-      </c>
-      <c r="D78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79">
-        <v>2000</v>
-      </c>
-      <c r="D79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80">
-        <v>2000</v>
-      </c>
-      <c r="D80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81">
-        <v>2000</v>
-      </c>
-      <c r="D81" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D83" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84">
-        <v>2000</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="7">
-        <v>24000</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>2000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>2000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
       <c r="C90">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
@@ -2099,381 +2278,603 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>1000</v>
-      </c>
-      <c r="D93" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C94">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D94" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>42</v>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="7">
+        <v>24000</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>1000</v>
+      </c>
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103">
+        <v>1000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>1000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>1000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>1000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96">
+      <c r="B107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="7">
         <v>1000</v>
       </c>
-      <c r="D96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="D107" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>1000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D98" s="7">
+      <c r="C110" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="7">
         <v>12000</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="7" t="s">
+      <c r="E110" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E99" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+      <c r="F119" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="7">
+        <v>7</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="N120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+      <c r="N121" t="s">
+        <v>25</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109">
+      <c r="N122" t="s">
+        <v>25</v>
+      </c>
+      <c r="O122">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
         <v>5</v>
       </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110">
+      <c r="N123" t="s">
+        <v>26</v>
+      </c>
+      <c r="O123">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
         <v>6</v>
       </c>
-      <c r="C111" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="2">
+      <c r="N124" t="s">
+        <v>26</v>
+      </c>
+      <c r="O124" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="N125" t="s">
+        <v>26</v>
+      </c>
+      <c r="O125" s="2">
         <v>250000</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="N126" t="s">
+        <v>25</v>
+      </c>
+      <c r="O126" s="2">
         <v>250000</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
         <v>9</v>
       </c>
-      <c r="C114" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="N127" t="s">
+        <v>26</v>
+      </c>
+      <c r="O127" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2">
+      <c r="N128" t="s">
+        <v>25</v>
+      </c>
+      <c r="O128" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="129" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M129" t="s">
         <v>11</v>
       </c>
-      <c r="C116" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="2">
+      <c r="N129" t="s">
+        <v>25</v>
+      </c>
+      <c r="O129" s="2">
         <v>500000</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="130" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
         <v>27</v>
       </c>
-      <c r="C117" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="2">
+      <c r="N130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O130" s="2">
         <v>2500000</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="131" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
         <v>12</v>
       </c>
-      <c r="C118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2">
+      <c r="N131" t="s">
+        <v>25</v>
+      </c>
+      <c r="O131" s="2">
         <v>2500000</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="132" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M132" t="s">
         <v>13</v>
       </c>
-      <c r="C119" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="N132" t="s">
+        <v>25</v>
+      </c>
+      <c r="O132" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="133" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
         <v>14</v>
       </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="N133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O133" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+    <row r="134" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
         <v>15</v>
       </c>
-      <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="N134" t="s">
+        <v>25</v>
+      </c>
+      <c r="O134" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="135" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M135" t="s">
         <v>16</v>
       </c>
-      <c r="C122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="2">
+      <c r="N135" t="s">
+        <v>26</v>
+      </c>
+      <c r="O135" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+    <row r="136" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M136" t="s">
         <v>17</v>
       </c>
-      <c r="C123" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="2">
+      <c r="N136" t="s">
+        <v>25</v>
+      </c>
+      <c r="O136" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+    <row r="137" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M137" t="s">
         <v>18</v>
       </c>
-      <c r="C124" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124">
+      <c r="N137" t="s">
+        <v>25</v>
+      </c>
+      <c r="O137">
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="138" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M138" t="s">
         <v>19</v>
       </c>
-      <c r="C125" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125" s="2">
+      <c r="N138" t="s">
+        <v>26</v>
+      </c>
+      <c r="O138" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+    <row r="139" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M139" t="s">
         <v>20</v>
       </c>
-      <c r="C126" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2">
+      <c r="N139" t="s">
+        <v>25</v>
+      </c>
+      <c r="O139" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="140" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M140" t="s">
         <v>21</v>
       </c>
-      <c r="C127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" s="2">
+      <c r="N140" t="s">
+        <v>26</v>
+      </c>
+      <c r="O140" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="141" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M141" t="s">
         <v>22</v>
       </c>
-      <c r="C128" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2">
+      <c r="N141" t="s">
+        <v>25</v>
+      </c>
+      <c r="O141" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="142" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M142" t="s">
         <v>23</v>
       </c>
-      <c r="C129" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="2">
+      <c r="N142" t="s">
+        <v>26</v>
+      </c>
+      <c r="O142" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+    <row r="143" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
         <v>24</v>
       </c>
-      <c r="C130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="N143" t="s">
+        <v>26</v>
+      </c>
+      <c r="O143" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+    <row r="144" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M144" t="s">
         <v>28</v>
       </c>
-      <c r="C131" t="s">
-        <v>25</v>
-      </c>
-      <c r="D131" s="2">
+      <c r="N144" t="s">
+        <v>25</v>
+      </c>
+      <c r="O144" s="2">
         <v>10000000</v>
       </c>
     </row>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2ABD1-DA1B-E542-B4DA-F8EF29058CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A4226-69CC-BB4F-A558-03F6537533E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="149">
   <si>
     <t>concetto</t>
   </si>
@@ -327,9 +327,6 @@
     <t>CONSULENTI</t>
   </si>
   <si>
-    <t>50000S</t>
-  </si>
-  <si>
     <t>7L</t>
   </si>
   <si>
@@ -388,13 +385,116 @@
   </si>
   <si>
     <t>100/gg</t>
+  </si>
+  <si>
+    <t>Op9b</t>
+  </si>
+  <si>
+    <t>Aggiunta recensione CVA</t>
+  </si>
+  <si>
+    <t>SERVIZIO CVA</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>30/gg</t>
+  </si>
+  <si>
+    <t>270/gg</t>
+  </si>
+  <si>
+    <t>Aggiunta recensione INT</t>
+  </si>
+  <si>
+    <t>SERVIZIO INT</t>
+  </si>
+  <si>
+    <t>5000S</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>500/g</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>6L</t>
+  </si>
+  <si>
+    <t>80/gg</t>
+  </si>
+  <si>
+    <t>1120/gg</t>
+  </si>
+  <si>
+    <t>Op10</t>
+  </si>
+  <si>
+    <t>Visualizzazione dipenti in base a filtri(eta,mediarensioni)</t>
+  </si>
+  <si>
+    <t>DIPENDENTE</t>
+  </si>
+  <si>
+    <t>3000L</t>
+  </si>
+  <si>
+    <t>50/gg</t>
+  </si>
+  <si>
+    <t>150000/gg</t>
+  </si>
+  <si>
+    <t>Op11</t>
+  </si>
+  <si>
+    <t>ACQUISTO IS</t>
+  </si>
+  <si>
+    <t>Visualizzazione 10 articoli più venduti</t>
+  </si>
+  <si>
+    <t>5500000L</t>
+  </si>
+  <si>
+    <t>5500000/sett</t>
+  </si>
+  <si>
+    <t>1 settimanel</t>
+  </si>
+  <si>
+    <t>Op12</t>
+  </si>
+  <si>
+    <t>3/m</t>
+  </si>
+  <si>
+    <t>6/m</t>
+  </si>
+  <si>
+    <t>Aggiunta nuovo accessorio</t>
+  </si>
+  <si>
+    <t>Op13</t>
+  </si>
+  <si>
+    <t>Aggiunta nuovo pezzo di ricambio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +536,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,10 +576,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -483,8 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,17 +1209,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
-  <dimension ref="A1:AJ144"/>
+  <dimension ref="A1:AJ175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1260,7 +1375,7 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -1272,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -1702,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
@@ -1730,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE59" s="5" t="s">
         <v>30</v>
@@ -1845,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" t="s">
         <v>106</v>
-      </c>
-      <c r="F64" t="s">
-        <v>107</v>
       </c>
       <c r="AA64" s="7" t="s">
         <v>37</v>
@@ -2047,7 +2162,7 @@
         <v>68</v>
       </c>
       <c r="AB74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC74" t="s">
         <v>75</v>
@@ -2198,7 +2313,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
@@ -2336,7 +2451,7 @@
         <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>75</v>
@@ -2348,12 +2463,12 @@
         <v>92</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
         <v>94</v>
@@ -2486,7 +2601,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
         <v>91</v>
@@ -2501,15 +2616,15 @@
         <v>92</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
         <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -2528,7 +2643,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -2542,7 +2657,7 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -2556,7 +2671,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -2583,7 +2698,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>83</v>
@@ -2592,13 +2707,13 @@
         <v>75</v>
       </c>
       <c r="D120" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>0</v>
@@ -2633,6 +2748,12 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
+      </c>
       <c r="M123" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2766,19 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M124" t="s">
         <v>6</v>
       </c>
@@ -2659,6 +2792,18 @@
       <c r="Q124" s="7"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
       <c r="M125" t="s">
         <v>7</v>
       </c>
@@ -2670,6 +2815,18 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
       <c r="M126" t="s">
         <v>8</v>
       </c>
@@ -2681,6 +2838,18 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>42</v>
+      </c>
       <c r="M127" t="s">
         <v>9</v>
       </c>
@@ -2692,6 +2861,18 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>42</v>
+      </c>
       <c r="M128" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2883,19 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="129" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>42</v>
+      </c>
       <c r="M129" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2906,19 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="130" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
       <c r="M130" t="s">
         <v>27</v>
       </c>
@@ -2724,7 +2929,18 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="131" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="M131" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2951,25 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="132" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" s="7">
+        <v>9</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="M132" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2980,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="133" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M133" t="s">
         <v>14</v>
       </c>
@@ -2757,7 +2991,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="134" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M134" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +3002,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" t="s">
+        <v>122</v>
+      </c>
       <c r="M135" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +3019,19 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="136" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M136" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +3042,19 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="137" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
       <c r="M137" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +3065,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
       <c r="M138" t="s">
         <v>19</v>
       </c>
@@ -2812,7 +3088,19 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="139" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>42</v>
+      </c>
       <c r="M139" t="s">
         <v>20</v>
       </c>
@@ -2823,7 +3111,19 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="140" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
       <c r="M140" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +3134,19 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="141" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>42</v>
+      </c>
       <c r="M141" t="s">
         <v>22</v>
       </c>
@@ -2845,7 +3157,19 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="142" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
       <c r="M142" t="s">
         <v>23</v>
       </c>
@@ -2856,7 +3180,18 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="143" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="M143" t="s">
         <v>24</v>
       </c>
@@ -2867,7 +3202,25 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="144" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D144" s="7">
+        <v>14</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="M144" t="s">
         <v>28</v>
       </c>
@@ -2876,6 +3229,298 @@
       </c>
       <c r="O144" s="2">
         <v>10000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>3000</v>
+      </c>
+      <c r="D149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D151" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156">
+        <v>500000</v>
+      </c>
+      <c r="D156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="9">
+        <v>2500000</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="D158" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>140</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="7">
+        <v>5500000</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D168" s="7">
+        <v>2</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>62</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>67</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D175" s="7">
+        <v>2</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A4226-69CC-BB4F-A558-03F6537533E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B61FD27-852A-004C-89B5-37CB667F0BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="161">
   <si>
     <t>concetto</t>
   </si>
@@ -484,6 +484,42 @@
   </si>
   <si>
     <t>Aggiunta nuovo pezzo di ricambio</t>
+  </si>
+  <si>
+    <t>SENZA</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>SERVIZIO</t>
+  </si>
+  <si>
+    <t>paga</t>
+  </si>
+  <si>
+    <t>57501L</t>
+  </si>
+  <si>
+    <t>57501/gg</t>
+  </si>
+  <si>
+    <t>OP6</t>
+  </si>
+  <si>
+    <t>con ridondanza</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>mese</t>
+  </si>
+  <si>
+    <t>senza</t>
   </si>
 </sst>
 </file>
@@ -492,7 +528,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -580,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -591,9 +627,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -1209,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
-  <dimension ref="A1:AJ175"/>
+  <dimension ref="A1:AE204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1220,12 +1255,12 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1233,26 +1268,49 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1260,50 +1318,133 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8">
+        <v>25000</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1314,91 +1455,266 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>25000</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10">
+        <v>3750</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>3750</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="Z13" s="7">
+        <v>57501</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -1411,8 +1727,20 @@
       <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1425,8 +1753,17 @@
       <c r="D21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1439,8 +1776,26 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1467,8 +1822,14 @@
       <c r="D24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -1481,8 +1842,20 @@
       <c r="D25" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1495,8 +1868,20 @@
       <c r="D26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1509,8 +1894,20 @@
       <c r="D27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1523,8 +1920,20 @@
       <c r="D28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1537,8 +1946,20 @@
       <c r="D29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1551,8 +1972,20 @@
       <c r="D30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1565,8 +1998,20 @@
       <c r="D31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -1576,8 +2021,20 @@
       <c r="F32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1596,128 +2053,301 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="M37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" t="s">
         <v>57</v>
       </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" t="s">
         <v>36</v>
       </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1728,153 +2358,273 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48">
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" t="s">
+        <v>53</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52">
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54">
         <v>10</v>
       </c>
-      <c r="D52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="P54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="M55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E53" t="s">
+      <c r="Q55" t="s">
         <v>72</v>
       </c>
-      <c r="F53" t="s">
+      <c r="R55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
         <v>68</v>
       </c>
-      <c r="B54" t="s">
+      <c r="N56" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="s">
+      <c r="O56" t="s">
         <v>75</v>
       </c>
-      <c r="D54">
+      <c r="P56">
         <v>53</v>
       </c>
-      <c r="E54" t="s">
+      <c r="Q56" t="s">
         <v>79</v>
       </c>
-      <c r="F54" t="s">
+      <c r="R56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AE57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>107</v>
+      </c>
+      <c r="N58" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="AE59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF59" s="5" t="s">
+      <c r="N59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG59" s="5" t="s">
+      <c r="O59" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH59" s="5" t="s">
+      <c r="P59" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AE60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG60">
-        <v>1</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>87</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60">
+        <v>2000</v>
+      </c>
+      <c r="P60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>30</v>
       </c>
@@ -1887,20 +2637,20 @@
       <c r="D61" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE61" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG61">
-        <v>1</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>88</v>
+      </c>
+      <c r="N61" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61">
+        <v>2000</v>
+      </c>
+      <c r="P61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -1913,20 +2663,20 @@
       <c r="D62" t="s">
         <v>41</v>
       </c>
-      <c r="AE62" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG62">
-        <v>1</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62">
+        <v>2000</v>
+      </c>
+      <c r="P62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
@@ -1936,20 +2686,20 @@
       <c r="F63" t="s">
         <v>73</v>
       </c>
-      <c r="AA63" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63">
+        <v>2000</v>
+      </c>
+      <c r="P63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1965,68 +2715,71 @@
       <c r="F64" t="s">
         <v>106</v>
       </c>
-      <c r="AA64" s="7" t="s">
+      <c r="M64" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64">
+        <v>2000</v>
+      </c>
+      <c r="P64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AB64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC64" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AA65" t="s">
+      <c r="N65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
         <v>37</v>
       </c>
-      <c r="AB65" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC65">
-        <v>1</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AA66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC66">
-        <v>2</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66">
+        <v>2000</v>
+      </c>
+      <c r="P66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="AA67" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC67">
-        <v>2</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="M67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>30</v>
       </c>
@@ -2039,20 +2792,26 @@
       <c r="D68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AA68" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC68">
-        <v>2</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>90</v>
+      </c>
+      <c r="N68" t="s">
+        <v>100</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P68" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2065,20 +2824,8 @@
       <c r="D69" t="s">
         <v>41</v>
       </c>
-      <c r="AA69" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC69">
-        <v>1</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>43</v>
       </c>
@@ -2090,20 +2837,14 @@
       <c r="F70" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AA70" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC70">
-        <v>1</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>108</v>
+      </c>
+      <c r="N70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -2119,65 +2860,69 @@
       <c r="F71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AA71" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC71">
-        <v>10</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AA72" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC72">
-        <v>10</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="AA73" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="M71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72">
+        <v>1000</v>
+      </c>
+      <c r="P72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>88</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73">
+        <v>1000</v>
+      </c>
+      <c r="P73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="AA74" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD74">
-        <v>53</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>95</v>
+      </c>
+      <c r="N74" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74">
+        <v>1000</v>
+      </c>
+      <c r="P74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>30</v>
       </c>
@@ -2190,14 +2935,20 @@
       <c r="D75" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI75" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="M75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N75" t="s">
+        <v>25</v>
+      </c>
+      <c r="O75">
+        <v>1000</v>
+      </c>
+      <c r="P75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2205,13 +2956,25 @@
         <v>25</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
+        <v>89</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76">
+        <v>1000</v>
+      </c>
+      <c r="P76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>43</v>
       </c>
@@ -2223,33 +2986,88 @@
       <c r="F77" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="M77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D78" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="M78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78">
+        <v>1000</v>
+      </c>
+      <c r="P78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="M79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R79" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>64</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>124</v>
+      </c>
+      <c r="N80" t="s">
+        <v>91</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +3081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -2271,13 +3089,13 @@
         <v>25</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>43</v>
       </c>
@@ -2289,29 +3107,59 @@
       <c r="F83" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>156</v>
+      </c>
+      <c r="N83" t="s">
+        <v>157</v>
+      </c>
+      <c r="P83" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q83">
+        <v>368080</v>
+      </c>
+      <c r="R83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D84" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="M84" t="s">
+        <v>156</v>
+      </c>
+      <c r="N84" t="s">
+        <v>160</v>
+      </c>
+      <c r="P84" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q84">
+        <v>1725030</v>
+      </c>
+      <c r="R84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -2321,7 +3169,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>30</v>
       </c>
@@ -2335,7 +3183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2349,7 +3197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2363,7 +3211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -2377,7 +3225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -2391,7 +3239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2405,7 +3253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>37</v>
       </c>
@@ -2419,7 +3267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2433,7 +3281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +3294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2715,37 +3563,6 @@
       <c r="F120" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M121" t="s">
-        <v>3</v>
-      </c>
-      <c r="N121" t="s">
-        <v>25</v>
-      </c>
-      <c r="O121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M122" t="s">
-        <v>4</v>
-      </c>
-      <c r="N122" t="s">
-        <v>25</v>
-      </c>
-      <c r="O122">
-        <v>40</v>
-      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -2754,15 +3571,6 @@
       <c r="B123" t="s">
         <v>117</v>
       </c>
-      <c r="M123" t="s">
-        <v>5</v>
-      </c>
-      <c r="N123" t="s">
-        <v>26</v>
-      </c>
-      <c r="O123">
-        <v>40</v>
-      </c>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
     </row>
@@ -2779,15 +3587,6 @@
       <c r="D124" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M124" t="s">
-        <v>6</v>
-      </c>
-      <c r="N124" t="s">
-        <v>26</v>
-      </c>
-      <c r="O124" s="2">
-        <v>1000000</v>
-      </c>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
     </row>
@@ -2804,15 +3603,6 @@
       <c r="D125" t="s">
         <v>41</v>
       </c>
-      <c r="M125" t="s">
-        <v>7</v>
-      </c>
-      <c r="N125" t="s">
-        <v>26</v>
-      </c>
-      <c r="O125" s="2">
-        <v>250000</v>
-      </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -2827,15 +3617,6 @@
       <c r="D126" t="s">
         <v>41</v>
       </c>
-      <c r="M126" t="s">
-        <v>8</v>
-      </c>
-      <c r="N126" t="s">
-        <v>25</v>
-      </c>
-      <c r="O126" s="2">
-        <v>250000</v>
-      </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -2850,15 +3631,6 @@
       <c r="D127" t="s">
         <v>42</v>
       </c>
-      <c r="M127" t="s">
-        <v>9</v>
-      </c>
-      <c r="N127" t="s">
-        <v>26</v>
-      </c>
-      <c r="O127" s="2">
-        <v>1000000</v>
-      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -2873,17 +3645,8 @@
       <c r="D128" t="s">
         <v>42</v>
       </c>
-      <c r="M128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N128" t="s">
-        <v>25</v>
-      </c>
-      <c r="O128" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2896,17 +3659,8 @@
       <c r="D129" t="s">
         <v>42</v>
       </c>
-      <c r="M129" t="s">
-        <v>11</v>
-      </c>
-      <c r="N129" t="s">
-        <v>25</v>
-      </c>
-      <c r="O129" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -2919,17 +3673,8 @@
       <c r="D130" t="s">
         <v>41</v>
       </c>
-      <c r="M130" t="s">
-        <v>27</v>
-      </c>
-      <c r="N130" t="s">
-        <v>26</v>
-      </c>
-      <c r="O130" s="2">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>43</v>
       </c>
@@ -2941,17 +3686,8 @@
       <c r="F131" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M131" t="s">
-        <v>12</v>
-      </c>
-      <c r="N131" t="s">
-        <v>25</v>
-      </c>
-      <c r="O131" s="2">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -2970,56 +3706,16 @@
       <c r="F132" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M132" t="s">
-        <v>13</v>
-      </c>
-      <c r="N132" t="s">
-        <v>25</v>
-      </c>
-      <c r="O132" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M133" t="s">
-        <v>14</v>
-      </c>
-      <c r="N133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O133" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M134" t="s">
-        <v>15</v>
-      </c>
-      <c r="N134" t="s">
-        <v>25</v>
-      </c>
-      <c r="O134" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>116</v>
       </c>
       <c r="B135" t="s">
         <v>122</v>
       </c>
-      <c r="M135" t="s">
-        <v>16</v>
-      </c>
-      <c r="N135" t="s">
-        <v>26</v>
-      </c>
-      <c r="O135" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>30</v>
       </c>
@@ -3032,17 +3728,8 @@
       <c r="D136" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M136" t="s">
-        <v>17</v>
-      </c>
-      <c r="N136" t="s">
-        <v>25</v>
-      </c>
-      <c r="O136" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>109</v>
       </c>
@@ -3055,17 +3742,8 @@
       <c r="D137" t="s">
         <v>41</v>
       </c>
-      <c r="M137" t="s">
-        <v>18</v>
-      </c>
-      <c r="N137" t="s">
-        <v>25</v>
-      </c>
-      <c r="O137">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3078,17 +3756,8 @@
       <c r="D138" t="s">
         <v>41</v>
       </c>
-      <c r="M138" t="s">
-        <v>19</v>
-      </c>
-      <c r="N138" t="s">
-        <v>26</v>
-      </c>
-      <c r="O138" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -3101,17 +3770,8 @@
       <c r="D139" t="s">
         <v>42</v>
       </c>
-      <c r="M139" t="s">
-        <v>20</v>
-      </c>
-      <c r="N139" t="s">
-        <v>25</v>
-      </c>
-      <c r="O139" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -3124,17 +3784,8 @@
       <c r="D140" t="s">
         <v>42</v>
       </c>
-      <c r="M140" t="s">
-        <v>21</v>
-      </c>
-      <c r="N140" t="s">
-        <v>26</v>
-      </c>
-      <c r="O140" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -3147,17 +3798,8 @@
       <c r="D141" t="s">
         <v>42</v>
       </c>
-      <c r="M141" t="s">
-        <v>22</v>
-      </c>
-      <c r="N141" t="s">
-        <v>25</v>
-      </c>
-      <c r="O141" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>59</v>
       </c>
@@ -3170,17 +3812,8 @@
       <c r="D142" t="s">
         <v>41</v>
       </c>
-      <c r="M142" t="s">
-        <v>23</v>
-      </c>
-      <c r="N142" t="s">
-        <v>26</v>
-      </c>
-      <c r="O142" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>43</v>
       </c>
@@ -3192,17 +3825,8 @@
       <c r="F143" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M143" t="s">
-        <v>24</v>
-      </c>
-      <c r="N143" t="s">
-        <v>26</v>
-      </c>
-      <c r="O143" s="2">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -3220,15 +3844,6 @@
       </c>
       <c r="F144" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M144" t="s">
-        <v>28</v>
-      </c>
-      <c r="N144" t="s">
-        <v>25</v>
-      </c>
-      <c r="O144" s="2">
-        <v>10000000</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3340,10 +3955,10 @@
       <c r="B157" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="8">
         <v>2500000</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3354,7 +3969,7 @@
       <c r="B158" t="s">
         <v>25</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>2500000</v>
       </c>
       <c r="D158" t="s">
@@ -3384,7 +3999,7 @@
       <c r="D160" s="7">
         <v>5500000</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" t="s">
         <v>142</v>
       </c>
       <c r="F160" s="7" t="s">
@@ -3523,6 +4138,292 @@
         <v>145</v>
       </c>
     </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+      <c r="C202" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>28</v>
+      </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>153</v>
+      </c>
+      <c r="B204" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="2">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabella dei volumi.xlsx
+++ b/tabella dei volumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezmirondeniku/Desktop/elaborato-database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede1\Desktop\uni\basi di dati\elaborato-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB870B6-01D4-6543-944B-8050CA1C14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FCD2B-590E-4DB4-9A96-49CB2D292C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{43723271-4DD4-433C-9C4E-C013E360E198}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi" sheetId="1" r:id="rId1"/>
@@ -449,9 +449,6 @@
     <t>ACQUISTO IS</t>
   </si>
   <si>
-    <t>Visualizzazione 10 articoli più venduti</t>
-  </si>
-  <si>
     <t>5500000L</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>1200/gg</t>
+  </si>
+  <si>
+    <t>Visualizzazione in base alla quantità venduta</t>
   </si>
 </sst>
 </file>
@@ -1009,13 +1009,13 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1071,9 +1071,9 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1082,9 +1082,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1093,9 +1093,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1104,7 +1104,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -1313,9 +1313,9 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -1334,16 +1334,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CF6F4-9A21-6746-81DA-F55FEE7F3A9F}">
   <dimension ref="A2:M176"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
@@ -1709,9 +1709,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -1726,10 +1726,10 @@
         <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="M65" s="5"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>42</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>29</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>42</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>42</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2227,11 +2227,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>29</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>29</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>36</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>42</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>29</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>42</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>106</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>49</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>50</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>42</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>113</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>29</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>106</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>107</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>120</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>57</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>57</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>42</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>124</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>128</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>29</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>130</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>42</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>131</v>
       </c>
@@ -2980,15 +2980,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>29</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>135</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>38</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>42</v>
       </c>
@@ -3057,9 +3057,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>73</v>
@@ -3068,21 +3068,21 @@
         <v>5500000</v>
       </c>
       <c r="E161" t="s">
+        <v>138</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>139</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>140</v>
-      </c>
       <c r="B165" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>29</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>42</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -3134,21 +3134,21 @@
         <v>2</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" t="s">
         <v>144</v>
       </c>
-      <c r="B172" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>29</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>60</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>42</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>65</v>
       </c>
@@ -3200,10 +3200,10 @@
         <v>2</v>
       </c>
       <c r="E176" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3219,9 +3219,9 @@
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>100</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3261,32 +3261,32 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3305,7 +3305,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>24</v>
@@ -3472,7 +3472,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3499,7 +3499,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
@@ -3596,11 +3596,11 @@
         <v>81</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3864,7 +3864,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>44</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>42</v>
       </c>
@@ -4263,9 +4263,9 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>95</v>
@@ -4280,7 +4280,7 @@
         <v>74</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -4294,7 +4294,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4313,7 +4313,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>29</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>55</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>35</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>42</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4789,7 +4789,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>104</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>84</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>57</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>86</v>
       </c>
@@ -4974,7 +4974,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>36</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>36</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
     </row>
-    <row r="68" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>42</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>87</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5103,7 +5103,7 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>105</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
     </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>29</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>84</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
     </row>
-    <row r="74" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>85</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>92</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>92</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>86</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>36</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
     </row>
-    <row r="80" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>42</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>121</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5417,7 +5417,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5436,22 +5436,22 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84" s="5">
         <v>368080</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -5465,22 +5465,22 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" s="5">
         <v>1725030</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -5494,7 +5494,7 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5522,13 +5522,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB6CC0-F95E-2445-A0BE-59D30DC8506F}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView zoomScale="58" workbookViewId="0">
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5546,7 +5546,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5564,27 +5564,27 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -5592,7 +5592,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5610,7 +5610,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5628,7 +5628,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5646,7 +5646,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -5740,7 +5740,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>24</v>
@@ -5876,7 +5876,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>25</v>
@@ -5910,7 +5910,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -5998,10 +5998,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>73</v>
@@ -6013,10 +6013,10 @@
         <v>89</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6034,7 +6034,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6056,7 +6056,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6082,7 +6082,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>105</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>25</v>
@@ -6282,7 +6282,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -6368,10 +6368,10 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>73</v>
@@ -6383,10 +6383,10 @@
         <v>89</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>42</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>121</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6452,17 +6452,17 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6518,7 +6518,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>48</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>24</v>
@@ -6586,7 +6586,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>25</v>
@@ -6620,7 +6620,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>73</v>
@@ -6719,10 +6719,10 @@
         <v>132</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -6774,7 +6774,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
@@ -6904,7 +6904,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>42</v>
       </c>
@@ -6928,9 +6928,9 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>95</v>
@@ -6945,7 +6945,7 @@
         <v>74</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -6958,7 +6958,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6976,7 +6976,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -6994,7 +6994,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -7012,7 +7012,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>56</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>58</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>59</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>60</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>42</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>66</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -7470,7 +7470,7 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>113</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
     </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>29</v>
       </c>
@@ -7518,7 +7518,7 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>106</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>107</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>115</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>49</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>50</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>42</v>
       </c>
@@ -7698,7 +7698,7 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>111</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7746,7 +7746,7 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7764,7 +7764,7 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
@@ -7786,7 +7786,7 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>29</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>106</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>107</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>120</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>56</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>57</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>57</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>42</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>124</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -8040,7 +8040,7 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>128</v>
       </c>
@@ -8062,7 +8062,7 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>29</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>130</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>42</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
         <v>131</v>
@@ -8166,7 +8166,7 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -8184,22 +8184,22 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="5">
         <v>4928100</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -8212,22 +8212,22 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -8240,7 +8240,7 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8258,7 +8258,7 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8276,7 +8276,7 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8294,7 +8294,7 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8312,7 +8312,7 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8330,7 +8330,7 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -8348,7 +8348,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
